--- a/Res_4_Reports_for_Manuscript/Table_FiguresSummary.xlsx
+++ b/Res_4_Reports_for_Manuscript/Table_FiguresSummary.xlsx
@@ -1,618 +1,632 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ProfFang_Data\DataAnalysis_OpenSource_Codes\Res_4_Reports_for_Manuscript\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F600892-D5C6-4251-954C-7DF7AAF38340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
-  <si>
-    <t xml:space="preserve">Figure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File.Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp.Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_1_Analysis_Flowchart.wmf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_1_@.wmf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure1/Figure_1_Analysis_Flowchart.wmf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure1/Figure_1_@.wmf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_Boxplot_CompMdl_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_2_A_@_Model Comparision-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Res_Boxplot_CompMdl_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure2/Figure_2_A_@_Model Comparision-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.Model Comparision: Depression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_Boxplot_CompMdl_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_2_C_@_Model Comparision-Suicidal Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Res_Boxplot_CompMdl_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure2/Figure_2_C_@_Model Comparision-Suicidal Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.Model Comparision: Suicidal Ideation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_RidgesPlot_CoefsFreq_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_2_B_@_Feature Evaluation-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Res_RidgesPlot_CoefsFreq_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure2/Figure_2_B_@_Feature Evaluation-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Feature Evaluation: Depression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_RidgesPlot_CoefsFreq_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_2_D_@_Feature Evaluation-Suicidal Ideation .svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Res_RidgesPlot_CoefsFreq_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure2/Figure_2_D_@_Feature Evaluation-Suicidal Ideation .svg</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="196">
+  <si>
+    <t>Figure</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>File.Name</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Comp.Name</t>
+  </si>
+  <si>
+    <t>Figure1</t>
+  </si>
+  <si>
+    <t>Figure_1_Analysis_Flowchart.wmf</t>
+  </si>
+  <si>
+    <t>Figure_1_@.wmf</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/DescriptiveStatRes/Figure_1_Analysis_Flowchart.wmf</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure1/Figure_1_@.wmf</t>
+  </si>
+  <si>
+    <t>Figure2</t>
+  </si>
+  <si>
+    <t>Res_Boxplot_CompMdl_Dep.svg</t>
+  </si>
+  <si>
+    <t>Figure_2_A_@_Model Comparision-Depression.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/Res_Boxplot_CompMdl_Dep.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure2/Figure_2_A_@_Model Comparision-Depression.svg</t>
+  </si>
+  <si>
+    <t>A.Model Comparision: Depression</t>
+  </si>
+  <si>
+    <t>Res_Boxplot_CompMdl_Suicide.svg</t>
+  </si>
+  <si>
+    <t>Figure_2_C_@_Model Comparision-Suicidal Ideation.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/Res_Boxplot_CompMdl_Suicide.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure2/Figure_2_C_@_Model Comparision-Suicidal Ideation.svg</t>
+  </si>
+  <si>
+    <t>C.Model Comparision: Suicidal Ideation</t>
+  </si>
+  <si>
+    <t>Res_RidgesPlot_CoefsFreq_Dep.svg</t>
+  </si>
+  <si>
+    <t>Figure_2_B_@_Feature Evaluation-Depression.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/Res_RidgesPlot_CoefsFreq_Dep.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure2/Figure_2_B_@_Feature Evaluation-Depression.svg</t>
+  </si>
+  <si>
+    <t>B.Feature Evaluation: Depression</t>
+  </si>
+  <si>
+    <t>Res_RidgesPlot_CoefsFreq_Suicide.svg</t>
+  </si>
+  <si>
+    <t>Figure_2_D_@_Feature Evaluation-Suicidal Ideation .svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/Res_RidgesPlot_CoefsFreq_Suicide.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure2/Figure_2_D_@_Feature Evaluation-Suicidal Ideation .svg</t>
   </si>
   <si>
     <t xml:space="preserve">D.Feature Evaluation: Suicidal Ideation </t>
   </si>
   <si>
-    <t xml:space="preserve">Res_Lineplot_FineTune_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_2_E_Inner_@_Fine Tune-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/ResML_OptimeHyperpara_Dep/Res_Lineplot_FineTune_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure2/Figure_2_E_Inner_@_Fine Tune-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_Inner.Fine Tune: Depression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_Lineplot_HyperparaOptim_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_2_E_@_Hyperparameter Optimization-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/ResML_OptimeHyperpara_Dep/Res_Lineplot_HyperparaOptim_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure2/Figure_2_E_@_Hyperparameter Optimization-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.Hyperparameter Optimization: Depression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_Lineplot_FineTune_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_2_F_Inner_@_Fine Tune-Suicidal Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/ResML_OptimeHyperpara_Suicide/Res_Lineplot_FineTune_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure2/Figure_2_F_Inner_@_Fine Tune-Suicidal Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F_Inner.Fine Tune: Suicidal Ideation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_Lineplot_HyperparaOptim_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_2_F_@_Hyperparameter Optimization-Suicidal Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/ResML_OptimeHyperpara_Suicide/Res_Lineplot_HyperparaOptim_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure2/Figure_2_F_@_Hyperparameter Optimization-Suicidal Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.Hyperparameter Optimization: Suicidal Ideation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_RidgesBalacc_OOSD_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_3_A_@_Out_of_sample Evaluation-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Res_RidgesBalacc_OOSD_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure3/Figure_3_A_@_Out_of_sample Evaluation-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.Out_of_sample Evaluation: Depression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_RidgesBalacc_OOSD_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_3_B_@_Out_of_sample Evaluation-Suicidal Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Res_RidgesBalacc_OOSD_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure3/Figure_3_B_@_Out_of_sample Evaluation-Suicidal Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Out_of_sample Evaluation: Suicidal Ideation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_CoefRidges_OOSD_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_3_C_@_Feature Importance-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/ResML_OOSD_Dep/Res_CoefRidges_OOSD_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure3/Figure_3_C_@_Feature Importance-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.Feature Importance: Depression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_CoefRidges_OOSD_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_3_D_@_Feature Importance-Suicidal Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/ResML_OOSD_Suicide/Res_CoefRidges_OOSD_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure3/Figure_3_D_@_Feature Importance-Suicidal Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.Feature Importance: Suicidal Ideation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_SexSubgroup_BalaACC_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_4_A_R_@_Biological Sex-Balanced ACC-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Res_SexSubgroup_BalaACC_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure4/Figure_4_A_R_@_Biological Sex-Balanced ACC-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.Biological Sex: Balanced ACC: Depression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_SexSubgroup_Coef_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_4_A_L_@_Biological Sex-Feature Importance-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Res_SexSubgroup_Coef_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure4/Figure_4_A_L_@_Biological Sex-Feature Importance-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.Biological Sex: Feature Importance: Depression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_SexSubgroup_BalaACC_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_4_D_R_@_Biological Sex-Balanced ACC-Suicidial Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Res_SexSubgroup_BalaACC_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure4/Figure_4_D_R_@_Biological Sex-Balanced ACC-Suicidial Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.Biological Sex: Balanced ACC: Suicidial Ideation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_SexSubgroup_Coef_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_4_D_L_@_Biological Sex-Feature Importance-Suicidial Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Res_SexSubgroup_Coef_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure4/Figure_4_D_L_@_Biological Sex-Feature Importance-Suicidial Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.Biological Sex: Feature Importance: Suicidial Ideation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_PhaseSubgroup_BalaACC_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_4_B_R_@_Educational Stage-Balanced ACC-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Res_PhaseSubgroup_BalaACC_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure4/Figure_4_B_R_@_Educational Stage-Balanced ACC-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Educational Stage: Balanced ACC: Depression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_PhaseSubgroup_Coef_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_4_B_L_@_Educational Stage-Feature Importance-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Res_PhaseSubgroup_Coef_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure4/Figure_4_B_L_@_Educational Stage-Feature Importance-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Educational Stage: Feature Importance: Depression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_PhaseSubgroup_BalaACC_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_4_E_R_@_Educational Stage-Balanced ACC-Suicidial Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Res_PhaseSubgroup_BalaACC_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure4/Figure_4_E_R_@_Educational Stage-Balanced ACC-Suicidial Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.Educational Stage: Balanced ACC: Suicidial Ideation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_PhaseSubgroup_Coef_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_4_E_L_@_Educational Stage-Feature Importance-Suicidial Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Res_PhaseSubgroup_Coef_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure4/Figure_4_E_L_@_Educational Stage-Feature Importance-Suicidial Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.Educational Stage: Feature Importance: Suicidial Ideation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_GeoAreaSubgroup_BalaACC_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_4_C_R_@_Geographic Area-Balanced ACC-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Res_GeoAreaSubgroup_BalaACC_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure4/Figure_4_C_R_@_Geographic Area-Balanced ACC-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.Geographic Area: Balanced ACC: Depression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_GeoAreaSubgroup_Coef_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_4_C_L_@_Geographic Area-Feature Importance-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Res_GeoAreaSubgroup_Coef_Dep.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure4/Figure_4_C_L_@_Geographic Area-Feature Importance-Depression.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.Geographic Area: Feature Importance: Depression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_GeoAreaSubgroup_BalaACC_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_4_F_R_@_Geographic Area-Balanced ACC-Suicidial Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Res_GeoAreaSubgroup_BalaACC_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure4/Figure_4_F_R_@_Geographic Area-Balanced ACC-Suicidial Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.Geographic Area: Balanced ACC: Suicidial Ideation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_GeoAreaSubgroup_Coef_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_4_F_L_@_Geographic Area-Feature Importance-Suicidial Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Res_GeoAreaSubgroup_Coef_Suicide.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/Figure4/Figure_4_F_L_@_Geographic Area-Feature Importance-Suicidial Ideation.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.Geographic Area: Feature Importance: Suicidial Ideation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FigureS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BarPlot_SexByArea.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_S1_A_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/RepVis_Demographics/BarPlot_SexByArea.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/FigureS1/Figure_S1_A_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BarPlot_SexByGrade.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_S1_B_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/RepVis_Demographics/BarPlot_SexByGrade.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/FigureS1/Figure_S1_B_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DistributionPlot_AgeBySex.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_S1_C_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/RepVis_Demographics/DistributionPlot_AgeBySex.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/FigureS1/Figure_S1_C_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DistributionPlot_AgeByGrade.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_S1_D_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/RepVis_Demographics/DistributionPlot_AgeByGrade.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/FigureS1/Figure_S1_D_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DistributionPlot_AgeByArea.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_S1_E_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/RepVis_Demographics/DistributionPlot_AgeByArea.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/FigureS1/Figure_S1_E_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FigureS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution_weightedIRV.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_S2_A_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/PreprocRes/Distribution_weightedIRV.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/FigureS2/Figure_S2_A_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution_IRVnumber.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_S2_B_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/PreprocRes/Distribution_IRVnumber.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/FigureS2/Figure_S2_B_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution_Maxlongstring.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_S2_C_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/PreprocRes/Distribution_Maxlongstring.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/FigureS2/Figure_S2_C_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution_EvenOdd.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_S2_D_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/PreprocRes/Distribution_EvenOdd.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/FigureS2/Figure_S2_D_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution_D2.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_S2_E_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/PreprocRes/Distribution_D2.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/FigureS2/Figure_S2_E_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution_ResponseTime.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_S2_F_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/PreprocRes/Distribution_ResponseTime.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/FigureS2/Figure_S2_F_@.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pheatmap_CarelessIndics.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_S2_G_@.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/PreprocRes/pheatmap_CarelessIndics.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/FigureS2/Figure_S2_G_@.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corr_CarelessIndics.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure_S2_H_@.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/PreprocRes/Corr_CarelessIndics.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:/ProfFang_Data/DataAnalysis_OpenSource_Codes/Res_2_Results/FigureS2/Figure_S2_H_@.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H.</t>
+    <t>Res_Lineplot_FineTune_Dep.svg</t>
+  </si>
+  <si>
+    <t>Figure_2_E_Inner_@_Fine Tune-Depression.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/ResML_OptimeHyperpara_Dep/Res_Lineplot_FineTune_Dep.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure2/Figure_2_E_Inner_@_Fine Tune-Depression.svg</t>
+  </si>
+  <si>
+    <t>E_Inner.Fine Tune: Depression</t>
+  </si>
+  <si>
+    <t>Res_Lineplot_HyperparaOptim_Dep.svg</t>
+  </si>
+  <si>
+    <t>Figure_2_E_@_Hyperparameter Optimization-Depression.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/ResML_OptimeHyperpara_Dep/Res_Lineplot_HyperparaOptim_Dep.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure2/Figure_2_E_@_Hyperparameter Optimization-Depression.svg</t>
+  </si>
+  <si>
+    <t>E.Hyperparameter Optimization: Depression</t>
+  </si>
+  <si>
+    <t>Res_Lineplot_FineTune_Suicide.svg</t>
+  </si>
+  <si>
+    <t>Figure_2_F_Inner_@_Fine Tune-Suicidal Ideation.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/ResML_OptimeHyperpara_Suicide/Res_Lineplot_FineTune_Suicide.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure2/Figure_2_F_Inner_@_Fine Tune-Suicidal Ideation.svg</t>
+  </si>
+  <si>
+    <t>F_Inner.Fine Tune: Suicidal Ideation</t>
+  </si>
+  <si>
+    <t>Res_Lineplot_HyperparaOptim_Suicide.svg</t>
+  </si>
+  <si>
+    <t>Figure_2_F_@_Hyperparameter Optimization-Suicidal Ideation.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/ResML_OptimeHyperpara_Suicide/Res_Lineplot_HyperparaOptim_Suicide.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure2/Figure_2_F_@_Hyperparameter Optimization-Suicidal Ideation.svg</t>
+  </si>
+  <si>
+    <t>F.Hyperparameter Optimization: Suicidal Ideation</t>
+  </si>
+  <si>
+    <t>Figure3</t>
+  </si>
+  <si>
+    <t>Res_RidgesBalacc_OOSD_Dep.svg</t>
+  </si>
+  <si>
+    <t>Figure_3_A_@_Out_of_sample Evaluation-Depression.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/Res_RidgesBalacc_OOSD_Dep.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure3/Figure_3_A_@_Out_of_sample Evaluation-Depression.svg</t>
+  </si>
+  <si>
+    <t>A.Out_of_sample Evaluation: Depression</t>
+  </si>
+  <si>
+    <t>Res_RidgesBalacc_OOSD_Suicide.svg</t>
+  </si>
+  <si>
+    <t>Figure_3_B_@_Out_of_sample Evaluation-Suicidal Ideation.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/Res_RidgesBalacc_OOSD_Suicide.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure3/Figure_3_B_@_Out_of_sample Evaluation-Suicidal Ideation.svg</t>
+  </si>
+  <si>
+    <t>B.Out_of_sample Evaluation: Suicidal Ideation</t>
+  </si>
+  <si>
+    <t>Res_CoefRidges_OOSD_Dep.svg</t>
+  </si>
+  <si>
+    <t>Figure_3_C_@_Feature Importance-Depression.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/ResML_OOSD_Dep/Res_CoefRidges_OOSD_Dep.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure3/Figure_3_C_@_Feature Importance-Depression.svg</t>
+  </si>
+  <si>
+    <t>C.Feature Importance: Depression</t>
+  </si>
+  <si>
+    <t>Res_CoefRidges_OOSD_Suicide.svg</t>
+  </si>
+  <si>
+    <t>Figure_3_D_@_Feature Importance-Suicidal Ideation.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/ResML_OOSD_Suicide/Res_CoefRidges_OOSD_Suicide.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure3/Figure_3_D_@_Feature Importance-Suicidal Ideation.svg</t>
+  </si>
+  <si>
+    <t>D.Feature Importance: Suicidal Ideation</t>
+  </si>
+  <si>
+    <t>Figure4</t>
+  </si>
+  <si>
+    <t>Res_SexSubgroup_BalaACC_Dep.svg</t>
+  </si>
+  <si>
+    <t>Figure_4_A_R_@_Biological Sex-Balanced ACC-Depression.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/Res_SexSubgroup_BalaACC_Dep.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure4/Figure_4_A_R_@_Biological Sex-Balanced ACC-Depression.svg</t>
+  </si>
+  <si>
+    <t>A.Biological Sex: Balanced ACC: Depression</t>
+  </si>
+  <si>
+    <t>Res_SexSubgroup_Coef_Dep.svg</t>
+  </si>
+  <si>
+    <t>Figure_4_A_L_@_Biological Sex-Feature Importance-Depression.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/Res_SexSubgroup_Coef_Dep.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure4/Figure_4_A_L_@_Biological Sex-Feature Importance-Depression.svg</t>
+  </si>
+  <si>
+    <t>A.Biological Sex: Feature Importance: Depression</t>
+  </si>
+  <si>
+    <t>Res_SexSubgroup_BalaACC_Suicide.svg</t>
+  </si>
+  <si>
+    <t>Figure_4_D_R_@_Biological Sex-Balanced ACC-Suicidial Ideation.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/Res_SexSubgroup_BalaACC_Suicide.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure4/Figure_4_D_R_@_Biological Sex-Balanced ACC-Suicidial Ideation.svg</t>
+  </si>
+  <si>
+    <t>D.Biological Sex: Balanced ACC: Suicidial Ideation</t>
+  </si>
+  <si>
+    <t>Res_SexSubgroup_Coef_Suicide.svg</t>
+  </si>
+  <si>
+    <t>Figure_4_D_L_@_Biological Sex-Feature Importance-Suicidial Ideation.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/Res_SexSubgroup_Coef_Suicide.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure4/Figure_4_D_L_@_Biological Sex-Feature Importance-Suicidial Ideation.svg</t>
+  </si>
+  <si>
+    <t>D.Biological Sex: Feature Importance: Suicidial Ideation</t>
+  </si>
+  <si>
+    <t>Res_PhaseSubgroup_BalaACC_Dep.svg</t>
+  </si>
+  <si>
+    <t>Figure_4_B_R_@_Educational Stage-Balanced ACC-Depression.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/Res_PhaseSubgroup_BalaACC_Dep.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure4/Figure_4_B_R_@_Educational Stage-Balanced ACC-Depression.svg</t>
+  </si>
+  <si>
+    <t>B.Educational Stage: Balanced ACC: Depression</t>
+  </si>
+  <si>
+    <t>Res_PhaseSubgroup_Coef_Dep.svg</t>
+  </si>
+  <si>
+    <t>Figure_4_B_L_@_Educational Stage-Feature Importance-Depression.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/Res_PhaseSubgroup_Coef_Dep.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure4/Figure_4_B_L_@_Educational Stage-Feature Importance-Depression.svg</t>
+  </si>
+  <si>
+    <t>B.Educational Stage: Feature Importance: Depression</t>
+  </si>
+  <si>
+    <t>Res_PhaseSubgroup_BalaACC_Suicide.svg</t>
+  </si>
+  <si>
+    <t>Figure_4_E_R_@_Educational Stage-Balanced ACC-Suicidial Ideation.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/Res_PhaseSubgroup_BalaACC_Suicide.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure4/Figure_4_E_R_@_Educational Stage-Balanced ACC-Suicidial Ideation.svg</t>
+  </si>
+  <si>
+    <t>E.Educational Stage: Balanced ACC: Suicidial Ideation</t>
+  </si>
+  <si>
+    <t>Res_PhaseSubgroup_Coef_Suicide.svg</t>
+  </si>
+  <si>
+    <t>Figure_4_E_L_@_Educational Stage-Feature Importance-Suicidial Ideation.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/Res_PhaseSubgroup_Coef_Suicide.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure4/Figure_4_E_L_@_Educational Stage-Feature Importance-Suicidial Ideation.svg</t>
+  </si>
+  <si>
+    <t>E.Educational Stage: Feature Importance: Suicidial Ideation</t>
+  </si>
+  <si>
+    <t>Res_GeoAreaSubgroup_BalaACC_Dep.svg</t>
+  </si>
+  <si>
+    <t>Figure_4_C_R_@_Geographic Area-Balanced ACC-Depression.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/Res_GeoAreaSubgroup_BalaACC_Dep.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure4/Figure_4_C_R_@_Geographic Area-Balanced ACC-Depression.svg</t>
+  </si>
+  <si>
+    <t>C.Geographic Area: Balanced ACC: Depression</t>
+  </si>
+  <si>
+    <t>Res_GeoAreaSubgroup_Coef_Dep.svg</t>
+  </si>
+  <si>
+    <t>Figure_4_C_L_@_Geographic Area-Feature Importance-Depression.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/Res_GeoAreaSubgroup_Coef_Dep.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure4/Figure_4_C_L_@_Geographic Area-Feature Importance-Depression.svg</t>
+  </si>
+  <si>
+    <t>C.Geographic Area: Feature Importance: Depression</t>
+  </si>
+  <si>
+    <t>Res_GeoAreaSubgroup_BalaACC_Suicide.svg</t>
+  </si>
+  <si>
+    <t>Figure_4_F_R_@_Geographic Area-Balanced ACC-Suicidial Ideation.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/Res_GeoAreaSubgroup_BalaACC_Suicide.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure4/Figure_4_F_R_@_Geographic Area-Balanced ACC-Suicidial Ideation.svg</t>
+  </si>
+  <si>
+    <t>F.Geographic Area: Balanced ACC: Suicidial Ideation</t>
+  </si>
+  <si>
+    <t>Res_GeoAreaSubgroup_Coef_Suicide.svg</t>
+  </si>
+  <si>
+    <t>Figure_4_F_L_@_Geographic Area-Feature Importance-Suicidial Ideation.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/Res_GeoAreaSubgroup_Coef_Suicide.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/Figure4/Figure_4_F_L_@_Geographic Area-Feature Importance-Suicidial Ideation.svg</t>
+  </si>
+  <si>
+    <t>F.Geographic Area: Feature Importance: Suicidial Ideation</t>
+  </si>
+  <si>
+    <t>FigureS1</t>
+  </si>
+  <si>
+    <t>BarPlot_SexByArea.svg</t>
+  </si>
+  <si>
+    <t>Figure_S1_A_@.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/RepVis_Demographics/BarPlot_SexByArea.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/FigureS1/Figure_S1_A_@.svg</t>
+  </si>
+  <si>
+    <t>A.</t>
+  </si>
+  <si>
+    <t>BarPlot_SexByGrade.svg</t>
+  </si>
+  <si>
+    <t>Figure_S1_B_@.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/RepVis_Demographics/BarPlot_SexByGrade.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/FigureS1/Figure_S1_B_@.svg</t>
+  </si>
+  <si>
+    <t>B.</t>
+  </si>
+  <si>
+    <t>DistributionPlot_AgeBySex.svg</t>
+  </si>
+  <si>
+    <t>Figure_S1_C_@.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/RepVis_Demographics/DistributionPlot_AgeBySex.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/FigureS1/Figure_S1_C_@.svg</t>
+  </si>
+  <si>
+    <t>C.</t>
+  </si>
+  <si>
+    <t>DistributionPlot_AgeByGrade.svg</t>
+  </si>
+  <si>
+    <t>Figure_S1_D_@.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/RepVis_Demographics/DistributionPlot_AgeByGrade.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/FigureS1/Figure_S1_D_@.svg</t>
+  </si>
+  <si>
+    <t>D.</t>
+  </si>
+  <si>
+    <t>DistributionPlot_AgeByArea.svg</t>
+  </si>
+  <si>
+    <t>Figure_S1_E_@.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/RepVis_Demographics/DistributionPlot_AgeByArea.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/FigureS1/Figure_S1_E_@.svg</t>
+  </si>
+  <si>
+    <t>E.</t>
+  </si>
+  <si>
+    <t>FigureS2</t>
+  </si>
+  <si>
+    <t>Distribution_weightedIRV.svg</t>
+  </si>
+  <si>
+    <t>Figure_S2_A_@.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/PreprocRes/Distribution_weightedIRV.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/FigureS2/Figure_S2_A_@.svg</t>
+  </si>
+  <si>
+    <t>Distribution_IRVnumber.svg</t>
+  </si>
+  <si>
+    <t>Figure_S2_B_@.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/PreprocRes/Distribution_IRVnumber.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/FigureS2/Figure_S2_B_@.svg</t>
+  </si>
+  <si>
+    <t>Distribution_Maxlongstring.svg</t>
+  </si>
+  <si>
+    <t>Figure_S2_C_@.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/PreprocRes/Distribution_Maxlongstring.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/FigureS2/Figure_S2_C_@.svg</t>
+  </si>
+  <si>
+    <t>Distribution_EvenOdd.svg</t>
+  </si>
+  <si>
+    <t>Figure_S2_D_@.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/PreprocRes/Distribution_EvenOdd.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/FigureS2/Figure_S2_D_@.svg</t>
+  </si>
+  <si>
+    <t>Distribution_D2.svg</t>
+  </si>
+  <si>
+    <t>Figure_S2_E_@.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/PreprocRes/Distribution_D2.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/FigureS2/Figure_S2_E_@.svg</t>
+  </si>
+  <si>
+    <t>Distribution_ResponseTime.svg</t>
+  </si>
+  <si>
+    <t>Figure_S2_F_@.svg</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/PreprocRes/Distribution_ResponseTime.svg</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/FigureS2/Figure_S2_F_@.svg</t>
+  </si>
+  <si>
+    <t>F.</t>
+  </si>
+  <si>
+    <t>pheatmap_CarelessIndics.png</t>
+  </si>
+  <si>
+    <t>Figure_S2_G_@.png</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/PreprocRes/pheatmap_CarelessIndics.png</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/FigureS2/Figure_S2_G_@.png</t>
+  </si>
+  <si>
+    <t>G.</t>
+  </si>
+  <si>
+    <t>Corr_CarelessIndics.png</t>
+  </si>
+  <si>
+    <t>Figure_S2_H_@.png</t>
+  </si>
+  <si>
+    <t>/Res_2_Results/PreprocRes/Corr_CarelessIndics.png</t>
+  </si>
+  <si>
+    <t>/Res_4_Reports_for_Manuscript/FigureS2/Figure_S2_H_@.png</t>
+  </si>
+  <si>
+    <t>H.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -640,9 +654,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -924,14 +947,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="118.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -951,7 +983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -967,9 +999,8 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -989,7 +1020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1009,7 +1040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1029,7 +1060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1049,7 +1080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1069,7 +1100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1089,7 +1120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1109,7 +1140,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1129,7 +1160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1149,7 +1180,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1169,7 +1200,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1189,7 +1220,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1209,7 +1240,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1229,7 +1260,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -1249,7 +1280,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -1269,7 +1300,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -1289,7 +1320,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -1309,7 +1340,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -1329,7 +1360,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -1349,7 +1380,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -1369,7 +1400,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -1389,7 +1420,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -1409,7 +1440,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1429,7 +1460,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -1449,7 +1480,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -1469,7 +1500,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -1489,7 +1520,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -1509,7 +1540,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -1529,7 +1560,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -1549,7 +1580,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -1569,7 +1600,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -1589,7 +1620,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -1609,7 +1640,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>160</v>
       </c>
@@ -1629,7 +1660,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -1649,7 +1680,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>160</v>
       </c>
@@ -1669,7 +1700,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -1689,7 +1720,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>160</v>
       </c>
@@ -1710,7 +1741,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>